--- a/烧蚀计算/过载烧蚀数据库.xlsx
+++ b/烧蚀计算/过载烧蚀数据库.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\E盘\算例\烧蚀计算\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F81BBD-647C-4748-A60F-2100E901A612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C2E927-6283-4B77-A5A2-218E5972B3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40220" yWindow="1940" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1340" yWindow="2920" windowWidth="16940" windowHeight="11670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -429,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -734,7 +734,7 @@
         <v>25</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="S5">
         <v>15</v>
@@ -793,7 +793,7 @@
         <v>30</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="S6">
         <v>20</v>
@@ -852,7 +852,7 @@
         <v>35</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="S7">
         <v>25</v>
@@ -911,7 +911,7 @@
         <v>40</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="S8">
         <v>30</v>
@@ -970,7 +970,7 @@
         <v>45</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9">
         <v>35</v>
@@ -1029,7 +1029,7 @@
         <v>50</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="S10">
         <v>40</v>
@@ -1088,7 +1088,7 @@
         <v>55</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="S11">
         <v>45</v>
@@ -1147,7 +1147,7 @@
         <v>60</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="S12">
         <v>50</v>
@@ -1206,7 +1206,7 @@
         <v>65</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="S13">
         <v>55</v>
@@ -1265,7 +1265,7 @@
         <v>70</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S14">
         <v>60</v>
@@ -1324,7 +1324,7 @@
         <v>75</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="S15">
         <v>65</v>
@@ -1383,7 +1383,7 @@
         <v>80</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="S16">
         <v>70</v>
@@ -1442,7 +1442,7 @@
         <v>85</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="S17">
         <v>75</v>
@@ -1501,7 +1501,7 @@
         <v>90</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="S18">
         <v>80</v>
@@ -1560,7 +1560,7 @@
         <v>95</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S19">
         <v>85</v>
@@ -1619,7 +1619,7 @@
         <v>100</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S20">
         <v>90</v>
@@ -1678,7 +1678,7 @@
         <v>105</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="S21">
         <v>95</v>
